--- a/biology/Botanique/Livistona/Livistona.xlsx
+++ b/biology/Botanique/Livistona/Livistona.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Livistona est un genre de plantes de la famille des Arécacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les espèces du genre sauf une possèdent un stipe solitaire. Le stipe conserve chez certaines espèces les bases foliaires jusqu'à la houppe, pour d'autres jusqu'à la couronne. Celle-ci comprend un grand nombre de feuilles.
 Les feuilles sont disposées en éventail. Elles sont palmées, nervurées, et les pétioles possèdent des épines sur leurs bords. Elles sont divisées jusqu'au milieu en segments individuels. Les feuilles sont bifides au sommet et ont souvent de fibres terminales.
@@ -544,7 +558,9 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces poussent dans différentes zones climatiques. Certaines en zones humides, d'autres dans des zones marquées par des périodes de sécheresses. La majorité des espèces affectionnent le soleil et les sols humides. Certaines espèces sont rustiques, et tolèrent des températures négatives de l'ordre de −8 °C/−10 °C.
 Elles sont originaires pour la plupart d'Australie, mais certaines espèces habitent dans l'Asie du Sud-Est et l'archipel malais.
@@ -576,14 +592,16 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Coryphoideae
 Tribu des Trachycarpeae
 Sous-tribu des Livistoninae 
-Ce genre partage sa sous-tribu avec cinq autres genres : Licuala, Johannesteijsmannia, Pholidocarpus, Saribus, Lanonia [1].
+Ce genre partage sa sous-tribu avec cinq autres genres : Licuala, Johannesteijsmannia, Pholidocarpus, Saribus, Lanonia .
 Le nom du genre est en l'honneur de Patrick Murray, baron de Liviston, botaniste écossais dont la collection participa à la création du Jardin Botanique Royal d'Édimbourg. Le genre est parfois mentionné par approximation comme « Livistonia » ou comme « Livingstonia » (Liviston étant une forme archaïque de Livingston).
-Livistona est très proche du genre Saribus, et durant une période les espèces de Saribus étaient incluses dans le genre Livistona. Des études récentes plaident néanmoins pour une séparation en deux groupes[2],[3].
+Livistona est très proche du genre Saribus, et durant une période les espèces de Saribus étaient incluses dans le genre Livistona. Des études récentes plaident néanmoins pour une séparation en deux groupes,.
 </t>
         </is>
       </c>
@@ -612,9 +630,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Vingt-huit espèces reconnues sont répertoriées à ce jour[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vingt-huit espèces reconnues sont répertoriées à ce jour.
 Livistona alfredii 	 F.Muell. , Victorian Naturalist 9: 112 (1892).
 Livistona australis 	  (R.Br.) Mart. , Hist. Nat. Palm. 3: 242 (1838).
 Livistona benthamii 	 F.M.Bailey, Queensl. Fl. 5: 1683 (1902).
@@ -646,8 +666,43 @@
 Livistona drudei est une espèce menacée selon la Liste rouge de l'UICN, classée en danger.
 Livistona woodfordii est aussi une espèce menacée selon la Liste rouge de l'UICN, classées comme vulnérable.
 Livistona alfredii, Livistona carinensis, Livistona endauensis, Livistona mariae et Livistona tahanensis sont des espèces menacées selon la Liste rouge de l'UICN,  mais classées comme présentant un faible risque de disparition.
-précédemment dans ce genre
-Livistona brevifolia  Dowe &amp; Mogea, (2004).	=Saribus brevifolius   (Dowe &amp; Mogea) Bacon &amp; W.J.Baker  (2011)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Livistona</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Livistona</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>précédemment dans ce genre</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Livistona brevifolia  Dowe &amp; Mogea, (2004).	=Saribus brevifolius   (Dowe &amp; Mogea) Bacon &amp; W.J.Baker  (2011)
 Livistona decipiens Becc. ex Chabaud., (1910)	= Livistona decora   (W.Bull) Dowe   (2004)
 Livistona kimberleyana Rodd,  (1998).		=Livistona leichhardtii   F.Muell.   (1874)
 Livistona lorophylla Becc., (1921).			=Livistona leichhardtii  F.Muell.    (1874)
@@ -657,7 +712,7 @@
 Livistona rotundifolia (Lam.) Mart., (1838).	=Saribus rotundifolius   (Lam.) Blume    (2011)
 Livistona surru Dowe &amp; Barfod, (2001).	=Saribus surru   (Dowe &amp; Barfod) Bacon &amp; W.J.Baker  (2011)
 Livistona tothur Dowe &amp; Barfod, (2001).	=Saribus tothur  (Dowe &amp; Barfod) Bacon &amp; W.J.Baker  (2011)
-Livistona woodfordii Ridl.,  (1898).		=Saribus woodfordii   (Ridl.) Bacon &amp; W.J.Baker (2011)[4]</t>
+Livistona woodfordii Ridl.,  (1898).		=Saribus woodfordii   (Ridl.) Bacon &amp; W.J.Baker (2011)</t>
         </is>
       </c>
     </row>
